--- a/docs/used_tools.xlsx
+++ b/docs/used_tools.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="99">
   <si>
     <t>比对参考基因组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sortmerna</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,14 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用于处理基因组信息分析的强大工具集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于基因组注释tRNA分子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用于生成进化树文件用于宿主预测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>identify|host_pred</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,10 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>compare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于病毒分类和比较</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,6 +382,26 @@
   </si>
   <si>
     <t>identify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统发育树的构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理基因组信息分析的强大工具集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因组注释tRNA分子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成进化树文件用于宿主预测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,292 +755,292 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" customWidth="1"/>
     <col min="4" max="4" width="37.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -1048,109 +1048,110 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>86</v>
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1">
-    <sortState ref="A2:D26">
-      <sortCondition ref="A1"/>
+    <sortState ref="A2:D27">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>